--- a/VO2_excel.xlsx
+++ b/VO2_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John Holash\Documents\Knes381\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC7171E3-22A1-4A13-B41D-FDBE781CD79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875E67DF-4D23-4D06-B9C7-4FC811778500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10272" yWindow="3516" windowWidth="22080" windowHeight="16320" xr2:uid="{44229B90-BAE9-457D-BDB1-1FF2291576CF}"/>
+    <workbookView xWindow="18396" yWindow="2808" windowWidth="22080" windowHeight="23268" xr2:uid="{44229B90-BAE9-457D-BDB1-1FF2291576CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,111 +36,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
-  <si>
-    <t xml:space="preserve">TIME </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VO2   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VO2/kg  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">METS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VCO2  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VE     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RER  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RR  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vt    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FEO2  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FECO2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HR  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VE/   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PetCO2 </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>Power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">STPD  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">STPD    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BTPS   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BTPS  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">min  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L/min </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ml/kg/m </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L/min  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BPM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">%     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpm </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BT/ST </t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmHg   </t>
   </si>
   <si>
     <t>Watts</t>
   </si>
   <si>
     <t>----------</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>VO2</t>
+  </si>
+  <si>
+    <t>VO2/kg</t>
+  </si>
+  <si>
+    <t>METS</t>
+  </si>
+  <si>
+    <t>VCO2</t>
+  </si>
+  <si>
+    <t>VE</t>
+  </si>
+  <si>
+    <t>RER</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>Vt</t>
+  </si>
+  <si>
+    <t>FEO2</t>
+  </si>
+  <si>
+    <t>FECO2</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>PetCO2</t>
+  </si>
+  <si>
+    <t>STPD</t>
+  </si>
+  <si>
+    <t>BTPS</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>L/min</t>
+  </si>
+  <si>
+    <t>ml/kg/m</t>
+  </si>
+  <si>
+    <t>BPM</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>bpm</t>
+  </si>
+  <si>
+    <t>BT/ST</t>
+  </si>
+  <si>
+    <t>mmHg</t>
+  </si>
+  <si>
+    <t>VE/CO2</t>
+  </si>
+  <si>
+    <t>VE/VO2</t>
   </si>
 </sst>
 </file>
@@ -501,161 +483,137 @@
   <dimension ref="A1:P59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="M2" sqref="M2:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="K3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="N3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="P3" s="1" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">

--- a/VO2_excel.xlsx
+++ b/VO2_excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John Holash\Documents\Knes381\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875E67DF-4D23-4D06-B9C7-4FC811778500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99712D9D-31E1-4886-A0FE-8898BB56EF95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18396" yWindow="2808" windowWidth="22080" windowHeight="23268" xr2:uid="{44229B90-BAE9-457D-BDB1-1FF2291576CF}"/>
+    <workbookView xWindow="5520" yWindow="2328" windowWidth="37536" windowHeight="23508" xr2:uid="{44229B90-BAE9-457D-BDB1-1FF2291576CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -170,7 +170,29 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -483,7 +505,7 @@
   <dimension ref="A1:P59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:N2"/>
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3413,5 +3435,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>